--- a/02_PHP_MySQL/16_final_test/php_mysql_ft_2020.xlsx
+++ b/02_PHP_MySQL/16_final_test/php_mysql_ft_2020.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="detailed" sheetId="1" r:id="rId1"/>
+    <sheet name="summary" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -672,8 +672,32 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>15 т бонуси</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>денислав</t>
   </si>
@@ -766,13 +790,16 @@
   </si>
   <si>
     <t>общо</t>
+  </si>
+  <si>
+    <t>задача 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -806,8 +833,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -820,8 +854,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -881,11 +945,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -907,13 +997,49 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1219,22 +1345,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="2" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="18" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" style="2" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="18" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="2" customWidth="1"/>
     <col min="12" max="15" width="8.88671875" style="2"/>
     <col min="16" max="16" width="11.77734375" style="2" customWidth="1"/>
     <col min="17" max="17" width="15.6640625" style="2" customWidth="1"/>
@@ -1243,8 +1369,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="9" t="s">
         <v>17</v>
       </c>
@@ -1259,7 +1385,7 @@
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
       <c r="L1" s="9" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
@@ -1269,13 +1395,13 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
       <c r="T1" s="11"/>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="5" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1285,7 +1411,9 @@
       <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1298,7 +1426,9 @@
       <c r="J2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="L2" s="4" t="s">
         <v>22</v>
       </c>
@@ -1323,68 +1453,70 @@
       <c r="S2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
+      <c r="T2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="13"/>
     </row>
     <row r="3" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19">
+        <v>5</v>
+      </c>
+      <c r="D3" s="19">
+        <v>2</v>
+      </c>
+      <c r="E3" s="19">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16">
         <f>C3+D3+E3</f>
         <v>8</v>
       </c>
-      <c r="G3" s="6">
-        <v>2</v>
-      </c>
-      <c r="H3" s="6">
-        <v>2</v>
-      </c>
-      <c r="I3" s="6">
-        <v>2</v>
-      </c>
-      <c r="J3" s="6">
-        <v>2</v>
-      </c>
-      <c r="K3" s="6">
+      <c r="G3" s="19">
+        <v>2</v>
+      </c>
+      <c r="H3" s="19">
+        <v>2</v>
+      </c>
+      <c r="I3" s="19">
+        <v>2</v>
+      </c>
+      <c r="J3" s="19">
+        <v>2</v>
+      </c>
+      <c r="K3" s="16">
         <f>J3+I3+H3+G3</f>
         <v>8</v>
       </c>
-      <c r="L3" s="6">
-        <v>5</v>
-      </c>
-      <c r="M3" s="6">
-        <v>5</v>
-      </c>
-      <c r="N3" s="6">
-        <v>5</v>
-      </c>
-      <c r="O3" s="6">
-        <v>1</v>
-      </c>
-      <c r="P3" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>1</v>
-      </c>
-      <c r="R3" s="6">
-        <v>5</v>
-      </c>
-      <c r="S3" s="6">
+      <c r="L3" s="19">
+        <v>5</v>
+      </c>
+      <c r="M3" s="19">
+        <v>5</v>
+      </c>
+      <c r="N3" s="19">
+        <v>5</v>
+      </c>
+      <c r="O3" s="19">
+        <v>1</v>
+      </c>
+      <c r="P3" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>1</v>
+      </c>
+      <c r="R3" s="19">
+        <v>5</v>
+      </c>
+      <c r="S3" s="19">
         <v>15</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="16">
         <f>R3+Q3+P3+O3+N3+M3+L3</f>
         <v>23</v>
       </c>
@@ -1407,7 +1539,7 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="16">
         <f t="shared" ref="F4:F15" si="0">C4+D4+E4</f>
         <v>8</v>
       </c>
@@ -1423,7 +1555,7 @@
       <c r="J4" s="1">
         <v>2</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="18">
         <f t="shared" ref="K4:K15" si="1">J4+I4+H4+G4</f>
         <v>8</v>
       </c>
@@ -1451,7 +1583,7 @@
       <c r="S4" s="8">
         <v>12</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="16">
         <f>R4+Q4+P4+O4+N4+M4+L4+S4</f>
         <v>35</v>
       </c>
@@ -1474,7 +1606,7 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1490,7 +1622,7 @@
       <c r="J5" s="1">
         <v>0</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -1516,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="1"/>
-      <c r="T5" s="6">
+      <c r="T5" s="16">
         <f t="shared" ref="T5:T15" si="3">R5+Q5+P5+O5+N5+M5+L5+S5</f>
         <v>0</v>
       </c>
@@ -1539,7 +1671,7 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1555,7 +1687,7 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -1581,7 +1713,7 @@
         <v>5</v>
       </c>
       <c r="S6" s="1"/>
-      <c r="T6" s="6">
+      <c r="T6" s="16">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
@@ -1604,7 +1736,7 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1620,7 +1752,7 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1646,7 +1778,7 @@
         <v>5</v>
       </c>
       <c r="S7" s="1"/>
-      <c r="T7" s="6">
+      <c r="T7" s="16">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
@@ -1669,7 +1801,7 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1685,7 +1817,7 @@
       <c r="J8" s="1">
         <v>0.4</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="18">
         <f t="shared" si="1"/>
         <v>4.0999999999999996</v>
       </c>
@@ -1711,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="S8" s="1"/>
-      <c r="T8" s="6">
+      <c r="T8" s="16">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
@@ -1734,7 +1866,7 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1750,7 +1882,7 @@
       <c r="J9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="18">
         <f t="shared" si="1"/>
         <v>2.0999999999999996</v>
       </c>
@@ -1776,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="1"/>
-      <c r="T9" s="6">
+      <c r="T9" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1799,7 +1931,7 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1815,7 +1947,7 @@
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1841,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="1"/>
-      <c r="T10" s="6">
+      <c r="T10" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1864,7 +1996,7 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1880,7 +2012,7 @@
       <c r="J11" s="1">
         <v>2</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="18">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -1908,7 +2040,7 @@
       <c r="S11" s="1">
         <v>15</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="16">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
@@ -1931,7 +2063,7 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1947,7 +2079,7 @@
       <c r="J12" s="1">
         <v>1</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -1973,7 +2105,7 @@
         <v>5</v>
       </c>
       <c r="S12" s="1"/>
-      <c r="T12" s="6">
+      <c r="T12" s="16">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
@@ -1996,7 +2128,7 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2012,7 +2144,7 @@
       <c r="J13" s="1">
         <v>0.7</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="18">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
@@ -2038,7 +2170,7 @@
         <v>5</v>
       </c>
       <c r="S13" s="1"/>
-      <c r="T13" s="6">
+      <c r="T13" s="16">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
@@ -2061,7 +2193,7 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2077,7 +2209,7 @@
       <c r="J14" s="1">
         <v>2</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="18">
         <f t="shared" si="1"/>
         <v>7.4</v>
       </c>
@@ -2103,7 +2235,7 @@
         <v>5</v>
       </c>
       <c r="S14" s="1"/>
-      <c r="T14" s="6">
+      <c r="T14" s="16">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
@@ -2126,7 +2258,7 @@
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2142,7 +2274,7 @@
       <c r="J15" s="1">
         <v>2</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="18">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -2170,7 +2302,7 @@
       <c r="S15" s="1">
         <v>12</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="16">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
@@ -2180,10 +2312,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
@@ -2192,14 +2325,306 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="21"/>
+      <c r="B1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="27">
+        <v>8</v>
+      </c>
+      <c r="C2" s="27">
+        <v>8</v>
+      </c>
+      <c r="D2" s="27">
+        <v>23</v>
+      </c>
+      <c r="E2" s="25">
+        <f>D2+C2+B2</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="20">
+        <f>detailed!F4</f>
+        <v>8</v>
+      </c>
+      <c r="C3" s="24">
+        <f>detailed!K4</f>
+        <v>8</v>
+      </c>
+      <c r="D3" s="20">
+        <f>detailed!T4</f>
+        <v>35</v>
+      </c>
+      <c r="E3" s="25">
+        <f>D3+C3+B3</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="20">
+        <f>detailed!F5</f>
+        <v>7</v>
+      </c>
+      <c r="C4" s="24">
+        <f>detailed!K5</f>
+        <v>6</v>
+      </c>
+      <c r="D4" s="20">
+        <f>detailed!T5</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="25">
+        <f t="shared" ref="E4:E14" si="0">D4+C4+B4</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="20">
+        <f>detailed!F6</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="24">
+        <f>detailed!K6</f>
+        <v>6</v>
+      </c>
+      <c r="D5" s="20">
+        <f>detailed!T6</f>
+        <v>23</v>
+      </c>
+      <c r="E5" s="25">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="20">
+        <f>detailed!F7</f>
+        <v>8</v>
+      </c>
+      <c r="C6" s="24">
+        <f>detailed!K7</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="20">
+        <f>detailed!T7</f>
+        <v>23</v>
+      </c>
+      <c r="E6" s="25">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="20">
+        <f>detailed!F8</f>
+        <v>7</v>
+      </c>
+      <c r="C7" s="24">
+        <f>detailed!K8</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D7" s="20">
+        <f>detailed!T8</f>
+        <v>14</v>
+      </c>
+      <c r="E7" s="25">
+        <f t="shared" si="0"/>
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="20">
+        <f>detailed!F9</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="24">
+        <f>detailed!K9</f>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="D8" s="20">
+        <f>detailed!T9</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="25">
+        <f t="shared" si="0"/>
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="20">
+        <f>detailed!F10</f>
+        <v>8</v>
+      </c>
+      <c r="C9" s="24">
+        <f>detailed!K10</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="20">
+        <f>detailed!T10</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="25">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="20">
+        <f>detailed!F11</f>
+        <v>7</v>
+      </c>
+      <c r="C10" s="24">
+        <f>detailed!K11</f>
+        <v>8</v>
+      </c>
+      <c r="D10" s="20">
+        <f>detailed!T11</f>
+        <v>37</v>
+      </c>
+      <c r="E10" s="25">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="20">
+        <f>detailed!F12</f>
+        <v>8</v>
+      </c>
+      <c r="C11" s="24">
+        <f>detailed!K12</f>
+        <v>5</v>
+      </c>
+      <c r="D11" s="20">
+        <f>detailed!T12</f>
+        <v>14</v>
+      </c>
+      <c r="E11" s="25">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="20">
+        <f>detailed!F13</f>
+        <v>5</v>
+      </c>
+      <c r="C12" s="24">
+        <f>detailed!K13</f>
+        <v>4.5</v>
+      </c>
+      <c r="D12" s="20">
+        <f>detailed!T13</f>
+        <v>13</v>
+      </c>
+      <c r="E12" s="25">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="20">
+        <f>detailed!F14</f>
+        <v>7</v>
+      </c>
+      <c r="C13" s="24">
+        <f>detailed!K14</f>
+        <v>7.4</v>
+      </c>
+      <c r="D13" s="20">
+        <f>detailed!T14</f>
+        <v>15</v>
+      </c>
+      <c r="E13" s="25">
+        <f t="shared" si="0"/>
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="20">
+        <f>detailed!F15</f>
+        <v>2</v>
+      </c>
+      <c r="C14" s="24">
+        <f>detailed!K15</f>
+        <v>7</v>
+      </c>
+      <c r="D14" s="20">
+        <f>detailed!T15</f>
+        <v>28</v>
+      </c>
+      <c r="E14" s="25">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
